--- a/bot_road_map.xlsx
+++ b/bot_road_map.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Preview message" sheetId="3" r:id="rId1"/>
@@ -81,12 +81,6 @@
     <t>какая разница</t>
   </si>
   <si>
-    <t>Что означает слово “KOLA”?</t>
-  </si>
-  <si>
-    <t>Что для тебя «первый велосипед»?</t>
-  </si>
-  <si>
     <t>разбитые коленки</t>
   </si>
   <si>
@@ -94,9 +88,6 @@
   </si>
   <si>
     <t>«наконец получилось!!»</t>
-  </si>
-  <si>
-    <t>Искусство - это..</t>
   </si>
   <si>
     <t xml:space="preserve">то, у чего нет границ </t>
@@ -147,6 +138,15 @@
 Розыгрыш пройдёт в прямом эфире 11 ноября в аккаунте &lt;a href="https://www.instagram.com/vivarovar_art?igshid=MzMyNGUyNmU2YQ%3D%3D&amp;utm_source=qr"&gt;@vivarovar_art&lt;/a&gt;🔥 
 Подписывайся и следи за обновлениями🎨 
 Каждую неделю анонс интересных экскурсий и художественных мастер-классов 💜</t>
+  </si>
+  <si>
+    <t>1. Что означает слово “KOLA”?</t>
+  </si>
+  <si>
+    <t>2. Что для тебя «первый велосипед»?</t>
+  </si>
+  <si>
+    <t>3. Искусство - это..</t>
   </si>
 </sst>
 </file>
@@ -528,18 +528,18 @@
   <sheetData>
     <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:2" s="1" customFormat="1" ht="244.8" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -551,8 +551,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:E1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -583,7 +583,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>16</v>
@@ -625,10 +625,10 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>3</v>
@@ -642,7 +642,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B6" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>3</v>
@@ -656,7 +656,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B7" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>3</v>
@@ -667,10 +667,10 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>3</v>
@@ -678,7 +678,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B9" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>3</v>
@@ -686,7 +686,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B10" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>3</v>
@@ -702,7 +702,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
@@ -715,24 +715,24 @@
   <sheetData>
     <row r="1" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="144" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -763,7 +763,7 @@
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="12"/>
       <c r="B2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/bot_road_map.xlsx
+++ b/bot_road_map.xlsx
@@ -72,33 +72,6 @@
     <t>На 2 nhfg чем 366</t>
   </si>
   <si>
-    <t xml:space="preserve">колесо </t>
-  </si>
-  <si>
-    <t>газированный напиток</t>
-  </si>
-  <si>
-    <t>какая разница</t>
-  </si>
-  <si>
-    <t>разбитые коленки</t>
-  </si>
-  <si>
-    <t>визжащие от восторга родители</t>
-  </si>
-  <si>
-    <t>«наконец получилось!!»</t>
-  </si>
-  <si>
-    <t xml:space="preserve">то, у чего нет границ </t>
-  </si>
-  <si>
-    <t>наслаждаться каждым моментом</t>
-  </si>
-  <si>
-    <t>вся наша жизнь</t>
-  </si>
-  <si>
     <t>https://www.instagram.com/vivarovar_art?igshid=MzMyNGUyNmU2YQ%3D%3D&amp;utm_source=qr</t>
   </si>
   <si>
@@ -147,6 +120,33 @@
   </si>
   <si>
     <t>3. Искусство - это..</t>
+  </si>
+  <si>
+    <t xml:space="preserve">🎨 То, у чего нет границ </t>
+  </si>
+  <si>
+    <t>🎨 Наслаждаться каждым моментом</t>
+  </si>
+  <si>
+    <t>🎨 Вся наша жизнь</t>
+  </si>
+  <si>
+    <t xml:space="preserve">🎨 Колесо </t>
+  </si>
+  <si>
+    <t>🎨 Газированный напиток</t>
+  </si>
+  <si>
+    <t>🎨 Какая разница</t>
+  </si>
+  <si>
+    <t>🎨 Разбитые коленки</t>
+  </si>
+  <si>
+    <t>🎨 Визжащие от восторга родители</t>
+  </si>
+  <si>
+    <t>🎨 «Наконец получилось!!»</t>
   </si>
 </sst>
 </file>
@@ -528,18 +528,18 @@
   <sheetData>
     <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:2" s="1" customFormat="1" ht="244.8" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -552,7 +552,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -583,10 +583,10 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>3</v>
@@ -600,7 +600,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B3" s="4" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>3</v>
@@ -614,7 +614,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B4" s="4" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>3</v>
@@ -625,10 +625,10 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>3</v>
@@ -642,7 +642,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B6" s="4" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>3</v>
@@ -656,7 +656,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B7" s="4" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>3</v>
@@ -667,10 +667,10 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>3</v>
@@ -678,7 +678,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B9" s="2" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>3</v>
@@ -686,7 +686,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B10" s="2" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>3</v>
@@ -715,24 +715,24 @@
   <sheetData>
     <row r="1" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="144" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -763,7 +763,7 @@
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="12"/>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
